--- a/output/StructureDefinition-t-cabs-observation-af.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-af.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-19T16:19:18+01:00</t>
+    <t>2025-03-25T16:42:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-t-cabs-observation-af.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-af.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T16:42:03+01:00</t>
+    <t>2025-04-02T15:35:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,7 +261,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-10:Either subject XOR encounter exists {$this.encounter.exists() xor $this.subject.exists()}vs-de-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-10:Either subject XOR encounter exists {$this.encounter.exists() xor $this.subject.exists()}vs-de-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -305,10 +305,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -426,6 +422,163 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Procedure)
+</t>
+  </si>
+  <si>
+    <t>Observation belongs to a specific extracorporeal procedure.</t>
+  </si>
+  <si>
+    <t>Dasjenige extrakorporale Verfahren, im Rahmen dessen der vorliegende Parameter (die Daten dieser Observation-Ressource) erhoben wurden.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-category-procedure-beatmung-snomed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -433,171 +586,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Procedure) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
-</t>
-  </si>
-  <si>
-    <t>Observation belongs to a specific extracorporeal procedure.</t>
-  </si>
-  <si>
-    <t>Dasjenige extrakorporale Verfahren, im Rahmen dessen der vorliegende Parameter (die Daten dieser Observation-Ressource) erhoben wurden.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}mii-reference-1:Either reference.reference OR reference.identifier exists {($this.reference.exists() or ($this.identifier.value.exists() and $this.identifier.system.exists())) xor $this.extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-category-procedure-beatmung-snomed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -669,9 +657,6 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -910,14 +895,17 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Device) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Patient|Device)
 </t>
   </si>
   <si>
-    <t>A reference from one resource to another</t>
-  </si>
-  <si>
-    <t>A reference from one resource to another.</t>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -946,8 +934,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -1033,8 +1030,8 @@
 &lt;/valueQuantity&gt;</t>
   </si>
   <si>
-    <t>ele-1
-obs-7</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>Observation.value[x].id</t>
@@ -1113,17 +1110,14 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>Quantity.system</t>
   </si>
   <si>
-    <t>ele-1
-qty-3</t>
+    <t xml:space="preserve">qty-3
+</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -1169,8 +1163,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>ele-1
-obs-6</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.interpretation</t>
@@ -1276,8 +1270,17 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/StructureDefinition/devicemetric-eingestellte-gemessene-parameter-beatmung) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/StructureDefinition/devicemetric-eingestellte-gemessene-parameter-beatmung)
 </t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
   </si>
   <si>
     <t>Observation.referenceRange</t>
@@ -1339,15 +1342,8 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1
-obs-3</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t xml:space="preserve">obs-3
+</t>
   </si>
   <si>
     <t>Observation.referenceRange.low.id</t>
@@ -1372,10 +1368,6 @@
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
   </si>
   <si>
     <t>Observation.referenceRange.low.code</t>
@@ -1474,14 +1466,7 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
     <t>Some analytes vary greatly over age.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>Observation.referenceRange.text</t>
@@ -1935,7 +1920,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="222.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="141.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2370,18 +2355,18 @@
         <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2404,16 +2389,16 @@
         <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2463,7 +2448,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -2472,18 +2457,18 @@
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2506,16 +2491,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2541,32 +2526,32 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
@@ -2574,22 +2559,22 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2608,16 +2593,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2667,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -2676,22 +2661,22 @@
         <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2710,16 +2695,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2769,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2786,14 +2771,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2812,16 +2797,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2859,19 +2844,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2880,22 +2865,22 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2914,19 +2899,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2963,19 +2948,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2984,18 +2969,18 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3018,17 +3003,17 @@
         <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3077,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -3086,22 +3071,22 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3120,19 +3105,17 @@
         <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3181,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -3190,22 +3173,22 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3224,16 +3207,16 @@
         <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3283,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -3292,18 +3275,18 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3326,19 +3309,19 @@
         <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3363,13 +3346,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3387,7 +3370,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -3396,18 +3379,18 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3430,19 +3413,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3467,29 +3450,29 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -3498,18 +3481,18 @@
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3532,13 +3515,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3589,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3606,14 +3589,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3632,16 +3615,16 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3679,19 +3662,19 @@
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3700,18 +3683,18 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3734,19 +3717,19 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3795,7 +3778,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3804,18 +3787,18 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3838,13 +3821,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3895,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3912,14 +3895,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3938,16 +3921,16 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3985,19 +3968,19 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -4006,18 +3989,18 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4040,19 +4023,19 @@
         <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4101,7 +4084,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -4110,18 +4093,18 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4144,16 +4127,16 @@
         <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4203,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4212,18 +4195,18 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4246,19 +4229,17 @@
         <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4307,7 +4288,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4316,18 +4297,18 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4350,19 +4331,17 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4411,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4420,18 +4399,18 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4454,19 +4433,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4515,7 +4494,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4524,18 +4503,18 @@
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4558,19 +4537,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4619,7 +4598,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4628,22 +4607,22 @@
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4662,19 +4641,19 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4699,13 +4678,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4723,7 +4702,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -4732,18 +4711,18 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4766,13 +4745,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4823,7 +4802,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4840,14 +4819,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4866,16 +4845,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4913,19 +4892,19 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4934,18 +4913,18 @@
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4953,7 +4932,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>75</v>
@@ -4968,19 +4947,19 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5017,17 +4996,17 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -5036,21 +5015,21 @@
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>20</v>
@@ -5072,19 +5051,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5094,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>20</v>
@@ -5109,11 +5088,11 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5131,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5140,18 +5119,18 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5174,13 +5153,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5231,7 +5210,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5248,14 +5227,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5274,16 +5253,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5321,19 +5300,19 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5342,18 +5321,18 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5376,19 +5355,19 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5437,7 +5416,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5446,18 +5425,18 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5480,16 +5459,16 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5539,7 +5518,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5548,18 +5527,18 @@
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5582,19 +5561,17 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5643,7 +5620,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5652,18 +5629,18 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5686,19 +5663,17 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5747,7 +5722,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5756,18 +5731,18 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5790,19 +5765,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5851,7 +5826,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5860,21 +5835,21 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>20</v>
@@ -5896,19 +5871,19 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -5918,7 +5893,7 @@
         <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>20</v>
@@ -5933,11 +5908,11 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -5955,7 +5930,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5964,18 +5939,18 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5998,13 +5973,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6055,7 +6030,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6072,14 +6047,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6098,16 +6073,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6145,19 +6120,19 @@
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6166,18 +6141,18 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6200,19 +6175,19 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6261,7 +6236,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6270,18 +6245,18 @@
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6304,16 +6279,16 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6363,7 +6338,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6372,18 +6347,18 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6406,19 +6381,17 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6467,7 +6440,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6476,18 +6449,18 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6510,19 +6483,17 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6571,7 +6542,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6580,18 +6551,18 @@
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6614,19 +6585,19 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6675,7 +6646,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6684,21 +6655,21 @@
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>20</v>
@@ -6720,19 +6691,19 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -6742,7 +6713,7 @@
         <v>20</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>20</v>
@@ -6757,11 +6728,11 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -6779,7 +6750,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -6788,18 +6759,18 @@
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6822,13 +6793,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6879,7 +6850,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6896,14 +6867,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6922,16 +6893,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6969,19 +6940,19 @@
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6990,18 +6961,18 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7024,19 +6995,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7085,7 +7056,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7094,18 +7065,18 @@
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7128,16 +7099,16 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7187,7 +7158,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7196,18 +7167,18 @@
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7230,19 +7201,17 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7291,7 +7260,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7300,18 +7269,18 @@
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7334,19 +7303,17 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7395,7 +7362,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7404,18 +7371,18 @@
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7438,19 +7405,19 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7499,7 +7466,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7508,18 +7475,18 @@
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7542,19 +7509,19 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -7603,7 +7570,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7612,18 +7579,18 @@
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7646,19 +7613,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -7707,7 +7674,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7716,18 +7683,18 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7750,16 +7717,16 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7809,7 +7776,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -7818,22 +7785,22 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7852,16 +7819,16 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>296</v>
@@ -7913,7 +7880,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -7922,10 +7889,10 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -8026,10 +7993,10 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -8128,10 +8095,10 @@
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8170,9 +8137,7 @@
       <c r="M61" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>313</v>
       </c>
@@ -8232,10 +8197,10 @@
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="62" hidden="true">
@@ -8339,7 +8304,7 @@
         <v>321</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -8370,13 +8335,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8427,7 +8392,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8451,7 +8416,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8470,16 +8435,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8517,19 +8482,19 @@
         <v>20</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
@@ -8538,10 +8503,10 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -8642,10 +8607,10 @@
         <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -8676,7 +8641,7 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>332</v>
@@ -8684,9 +8649,7 @@
       <c r="M66" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>334</v>
       </c>
@@ -8715,7 +8678,7 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y66" t="s" s="2">
         <v>336</v>
@@ -8748,10 +8711,10 @@
         <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -8782,7 +8745,7 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>340</v>
@@ -8790,9 +8753,7 @@
       <c r="M67" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>342</v>
       </c>
@@ -8852,10 +8813,10 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -8886,7 +8847,7 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>345</v>
@@ -8894,11 +8855,9 @@
       <c r="M68" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -8947,27 +8906,27 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8990,19 +8949,19 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -9051,7 +9010,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
@@ -9060,18 +9019,18 @@
         <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9094,19 +9053,19 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -9131,55 +9090,55 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z70" t="s" s="2">
+      <c r="AA70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9198,19 +9157,19 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -9235,14 +9194,14 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
       </c>
@@ -9259,7 +9218,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -9268,18 +9227,18 @@
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9302,19 +9261,19 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -9363,7 +9322,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9372,18 +9331,18 @@
         <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9406,16 +9365,16 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9441,14 +9400,14 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
       </c>
@@ -9465,7 +9424,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9474,18 +9433,18 @@
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9508,19 +9467,19 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -9545,14 +9504,14 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
       </c>
@@ -9569,7 +9528,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -9578,18 +9537,18 @@
         <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9612,16 +9571,16 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9671,7 +9630,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
@@ -9680,18 +9639,18 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9714,16 +9673,16 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -9773,7 +9732,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
@@ -9782,18 +9741,18 @@
         <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9816,19 +9775,19 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -9877,7 +9836,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>74</v>
@@ -9886,18 +9845,18 @@
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9920,13 +9879,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9977,7 +9936,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>74</v>
@@ -9994,14 +9953,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10020,16 +9979,16 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10067,19 +10026,19 @@
         <v>20</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
@@ -10088,22 +10047,22 @@
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10122,19 +10081,19 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -10183,7 +10142,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>74</v>
@@ -10192,18 +10151,18 @@
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10226,17 +10185,15 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -10285,7 +10242,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
@@ -10294,10 +10251,10 @@
         <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>420</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -10328,13 +10285,13 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10385,7 +10342,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>74</v>
@@ -10409,7 +10366,7 @@
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10428,16 +10385,16 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10475,19 +10432,19 @@
         <v>20</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>74</v>
@@ -10499,7 +10456,7 @@
         <v>20</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" hidden="true">
@@ -10603,7 +10560,7 @@
         <v>20</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -10634,7 +10591,7 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>332</v>
@@ -10671,7 +10628,7 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y85" t="s" s="2">
         <v>336</v>
@@ -10707,7 +10664,7 @@
         <v>20</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -10738,7 +10695,7 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>340</v>
@@ -10809,7 +10766,7 @@
         <v>20</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -10840,7 +10797,7 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>345</v>
@@ -10850,7 +10807,7 @@
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -10899,27 +10856,27 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI87" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AJ87" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10942,19 +10899,19 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -11003,7 +10960,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>74</v>
@@ -11015,15 +10972,15 @@
         <v>20</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11046,17 +11003,15 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -11105,7 +11060,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>74</v>
@@ -11114,18 +11069,18 @@
         <v>82</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>420</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11148,13 +11103,13 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11205,7 +11160,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>74</v>
@@ -11222,14 +11177,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11248,16 +11203,16 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M91" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11295,19 +11250,19 @@
         <v>20</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>74</v>
@@ -11319,15 +11274,15 @@
         <v>20</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11423,15 +11378,15 @@
         <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11454,7 +11409,7 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>332</v>
@@ -11491,7 +11446,7 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y93" t="s" s="2">
         <v>336</v>
@@ -11527,15 +11482,15 @@
         <v>20</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11558,7 +11513,7 @@
         <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>340</v>
@@ -11629,15 +11584,15 @@
         <v>20</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11660,7 +11615,7 @@
         <v>83</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>345</v>
@@ -11670,7 +11625,7 @@
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -11719,27 +11674,27 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AG95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AJ95" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11762,19 +11717,19 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -11823,7 +11778,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>74</v>
@@ -11835,15 +11790,15 @@
         <v>20</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11866,19 +11821,19 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -11888,29 +11843,29 @@
         <v>20</v>
       </c>
       <c r="S97" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="T97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y97" t="s" s="2">
+      <c r="Z97" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>20</v>
       </c>
@@ -11927,7 +11882,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>74</v>
@@ -11936,18 +11891,18 @@
         <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11970,19 +11925,19 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -12007,14 +11962,14 @@
         <v>20</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y98" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z98" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z98" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AA98" t="s" s="2">
         <v>20</v>
       </c>
@@ -12031,7 +11986,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>74</v>
@@ -12040,18 +11995,18 @@
         <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12074,19 +12029,17 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -12135,7 +12088,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>74</v>
@@ -12144,18 +12097,18 @@
         <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12178,17 +12131,15 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -12237,7 +12188,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>74</v>
@@ -12246,18 +12197,18 @@
         <v>82</v>
       </c>
       <c r="AI100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12280,16 +12231,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -12339,7 +12290,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>74</v>
@@ -12348,18 +12299,18 @@
         <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12382,16 +12333,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -12441,7 +12392,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>74</v>
@@ -12450,18 +12401,18 @@
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12484,19 +12435,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O103" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -12545,7 +12496,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>74</v>
@@ -12554,18 +12505,18 @@
         <v>75</v>
       </c>
       <c r="AI103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12588,13 +12539,13 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12645,7 +12596,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>74</v>
@@ -12662,14 +12613,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -12688,16 +12639,16 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L105" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M105" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -12735,19 +12686,19 @@
         <v>20</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>74</v>
@@ -12756,22 +12707,22 @@
         <v>75</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -12790,19 +12741,19 @@
         <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>20</v>
@@ -12851,7 +12802,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>74</v>
@@ -12860,18 +12811,18 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12894,19 +12845,19 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>20</v>
@@ -12931,13 +12882,13 @@
         <v>20</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>20</v>
@@ -12955,7 +12906,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
@@ -12964,18 +12915,18 @@
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12998,16 +12949,16 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>317</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>319</v>
@@ -13059,7 +13010,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>74</v>
@@ -13068,18 +13019,18 @@
         <v>82</v>
       </c>
       <c r="AI108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13102,19 +13053,19 @@
         <v>20</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>20</v>
@@ -13139,55 +13090,55 @@
         <v>20</v>
       </c>
       <c r="X109" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y109" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y109" t="s" s="2">
+      <c r="Z109" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z109" t="s" s="2">
+      <c r="AA109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI109" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AA109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AJ109" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -13206,19 +13157,19 @@
         <v>20</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>20</v>
@@ -13243,14 +13194,14 @@
         <v>20</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>20</v>
       </c>
@@ -13267,7 +13218,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>74</v>
@@ -13276,18 +13227,18 @@
         <v>75</v>
       </c>
       <c r="AI110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13313,16 +13264,16 @@
         <v>76</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>20</v>
@@ -13371,7 +13322,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>74</v>
@@ -13383,7 +13334,7 @@
         <v>20</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
